--- a/Excel/Zodii.xlsx
+++ b/Excel/Zodii.xlsx
@@ -60,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
-    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,14 +94,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -110,17 +110,17 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -136,13 +136,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="5">
     <tableColumn id="1" name="Име"/>
-    <tableColumn id="2" name="Дата на раждане" dataDxfId="3"/>
+    <tableColumn id="2" name="Дата на раждане" dataDxfId="2"/>
     <tableColumn id="3" name="Зодия"/>
-    <tableColumn id="4" name="Ръст" dataDxfId="0"/>
-    <tableColumn id="5" name="Среден успех" dataDxfId="2"/>
+    <tableColumn id="4" name="Ръст" dataDxfId="1"/>
+    <tableColumn id="5" name="Среден успех" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>37698</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Риби</v>
       </c>
       <c r="D2" s="4">
@@ -495,7 +495,7 @@
         <v>37817</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Рак</v>
       </c>
       <c r="D3" s="4">
@@ -514,7 +514,7 @@
         <v>37653</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Водолей</v>
       </c>
       <c r="D4" s="4">
@@ -533,7 +533,7 @@
         <v>37758</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Телец</v>
       </c>
       <c r="D5" s="4">
@@ -552,7 +552,7 @@
         <v>37879</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Дева</v>
       </c>
       <c r="D6" s="4">
@@ -571,7 +571,7 @@
         <v>37679</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Риби</v>
       </c>
       <c r="D7" s="4">
@@ -590,7 +590,7 @@
         <v>37984</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Козирог</v>
       </c>
       <c r="D8" s="4">
@@ -609,7 +609,7 @@
         <v>37850</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2,1)</f>
+        <f>VLOOKUP(--TEXT(Table1[[#This Row],[Дата на раждане]],"m.d"),{1.1,"Козирог";1.2,"Водолей";2.18,"Риби";3.2,"Овен";4.2,"Телец";5.2,"Близнаци";6.21,"Рак";7.22,"Лъв";8.23,"Дева";9.22,"Везни";10.23,"Скорпион";11.22,"Стрелец";12.22,"Козирог"},2)</f>
         <v>Лъв</v>
       </c>
       <c r="D9" s="4">
